--- a/GWPC_Data2.xlsx
+++ b/GWPC_Data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GW Automation Scripts\GWPCDataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EAF27E-C3DA-4D8C-AE83-C6CCBEA5131D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABD150D-38CE-48CD-AADA-A7A5D2358738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="9720" windowHeight="3345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -173,10 +173,10 @@
     <t>EMCBIL1836SC2</t>
   </si>
   <si>
-    <t>11/29/2023</t>
-  </si>
-  <si>
-    <t>EMCBIL2878SC6</t>
+    <t>07/09/2023</t>
+  </si>
+  <si>
+    <t>EMCTESTABC123</t>
   </si>
 </sst>
 </file>
